--- a/biology/Biochimie/Francis_Édeline/Francis_Édeline.xlsx
+++ b/biology/Biochimie/Francis_Édeline/Francis_Édeline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Francis_%C3%89deline</t>
+          <t>Francis_Édeline</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Francis Édeline, né en 1930 à Bouillon, est un biochimiste, chimiste et linguiste belge. Il est notamment connu pour être l'un des membres du Groupe μ.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Francis_%C3%89deline</t>
+          <t>Francis_Édeline</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de l'artiste peintre Guillaume Edeline. 
 En 1948, il termine ses humanités gréco-latines à l’Athénée  Turenne  de Bouillon, puis entre à la faculté des sciences agronomiques de Gembloux où il sortira diplômé en 1953 en tant qu'ingénieur chimiste et des industries agricoles. Il poursuit ensuite d'autres études aux Etats-Unis jusqu'en 1960 à l'Advanced Study Institute de l'Université de Syracuse.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Francis_%C3%89deline</t>
+          <t>Francis_Édeline</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Publications (choix)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>"Le Drame de l'Expression", 1959. Courrier du Centre International d'Études Poétiques, numéro 27.
 Rhétorique générale, 1970. Paris, Larousse (avec le Groupe µ).
@@ -593,7 +609,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Francis_%C3%89deline</t>
+          <t>Francis_Édeline</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +627,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Prix Jules Cornet (Faculté Polytechnique de Mons), 1993.
 Médaille Trasenster (Association des Ingénieurs sortis de l'Ecole de Liège), 1996.
